--- a/biology/Microbiologie/Klebsiella_aerogenes/Klebsiella_aerogenes.xlsx
+++ b/biology/Microbiologie/Klebsiella_aerogenes/Klebsiella_aerogenes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Klebsiella aerogenes (anciennement Enterobacter aerogenes[1]) est une bactérie Gram négative, oxydase -, catalase +, citrate de simmons +, indole -. Elle appartient à la famille des Entérobactéries. C'est un bacille, de 1 à 3 micromètres de longueur, qui peut se déplacer grâce à un ensemble de flagelles[2]. (ciliature péritriche).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Klebsiella aerogenes (anciennement Enterobacter aerogenes) est une bactérie Gram négative, oxydase -, catalase +, citrate de simmons +, indole -. Elle appartient à la famille des Entérobactéries. C'est un bacille, de 1 à 3 micromètres de longueur, qui peut se déplacer grâce à un ensemble de flagelles. (ciliature péritriche).
 Cette bactérie peut être responsable d'infections nosocomiales, et peut causer des infections opportunistes. La plupart de ces infections sont sensibles aux antibiotiques. Cette bactérie possède néanmoins des mécanismes de résistance aux antibiotiques, notamment des β-lactamases, et peut donc devenir rapidement résistante aux antibiotiques standards au cours du traitement, nécessitant le recours à d'autres antibiotiques.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Résultats à des tests d'identification biochimiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les valeurs des caractères listés sont toujours à prendre avec relativité des variants pouvant être identifiés.
 </t>
